--- a/Exercise/Day10-15-JS/Requirement/QLBH.xlsx
+++ b/Exercise/Day10-15-JS/Requirement/QLBH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\47-front-end\Practice-UI\Exercise\Day10-15-JS\Requirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Practice-UI\Practice-UI\Exercise\Day10-15-JS\Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45B7DE8-0181-4D63-AE4C-5FFD9E5D3073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D9D542-5BCC-46BF-88CB-9724A868BA44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38BAB199-1096-44FC-8C41-52D2A30720A4}"/>
+    <workbookView xWindow="-28920" yWindow="-1770" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{38BAB199-1096-44FC-8C41-52D2A30720A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Tạo 1 website bán hàng </t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t xml:space="preserve">Click Thanh toán - &gt; </t>
+  </si>
+  <si>
+    <t>https://5f3a39ff2300b100169a885c.mockapi.io/api/</t>
+  </si>
+  <si>
+    <t>https://mockapi.io/projects/5f3a39ff2300b100169a885d</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -388,9 +394,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -398,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,6 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -783,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EAFF3-7435-438C-953C-C312B6837B8D}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,13 +807,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4"/>
@@ -842,7 +849,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
@@ -853,7 +860,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
@@ -873,48 +880,48 @@
       <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -945,13 +952,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05EE4A4-0220-4C76-AF64-2A78FB3608BA}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="129" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -986,6 +996,16 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -996,6 +1016,8 @@
     <hyperlink ref="A5" r:id="rId4" display="https://5bd2959ac8f9e400130cb7e9.mockapi.io/api/products" xr:uid="{DF4AC219-715E-439C-8875-00CED884D0E5}"/>
     <hyperlink ref="A6" r:id="rId5" display="https://5bd2959ac8f9e400130cb7e9.mockapi.io/api/products" xr:uid="{7F1EF2C1-7981-4756-BA45-BB18D497E68D}"/>
     <hyperlink ref="A7" r:id="rId6" display="https://5bd2959ac8f9e400130cb7e9.mockapi.io/api/products" xr:uid="{F0F3CDBB-68D5-42CA-BF4C-47A8614AF426}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{A86CAB01-8DA3-42F3-8B50-DD6C13A8E51D}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{1DC648F0-5CD3-4909-A25D-01A2FA267DC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
